--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/零星件报价审核表.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/零星件报价审核表.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\财务报价核价系统__V2\后端github郭琪琪分支\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0310B3-DC13-4670-9769-C6E7639C0CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB40C12-D1B3-47AB-93A9-5B0E2449BEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="450" windowWidth="26520" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="900" windowWidth="26520" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>报 价 审 核 表</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -39,10 +48,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>报价策略</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>走量</t>
   </si>
   <si>
@@ -59,26 +64,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理审批界面带出-数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理审批界面带出-单位成本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>（价格-成本）/价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理审批界面带出-单价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理审批界面带出-备注</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -115,10 +100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>记录编号:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>直接客户名称：{{DirectCustomerName}}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,6 +129,38 @@
   </si>
   <si>
     <t>{{ComponentTypeDisplayName}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LXApprovalFormListDtos.TravelVolume}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LXApprovalFormListDtos.Cost}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LXApprovalFormListDtos.GrossProfitMargin}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LXApprovalFormListDtos.Price}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{LXApprovalFormListDtos.Remarks}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录编号:WS-232-04-01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{DateTime}}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价策略</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -580,7 +593,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,25 +680,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -654,63 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,13 +1119,16 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="26.5" customWidth="1"/>
+    <col min="1" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="29.875" customWidth="1"/>
     <col min="12" max="12" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1125,11 +1153,13 @@
       <c r="G2" s="31"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L2" s="31"/>
     </row>
@@ -1148,48 +1178,48 @@
       <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="A6" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1198,18 +1228,18 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="A7" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1219,26 +1249,26 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="73"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="75"/>
+      <c r="B9" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="43"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="13"/>
@@ -1267,10 +1297,10 @@
       <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="61"/>
+      <c r="B11" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="36"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="13"/>
@@ -1298,57 +1328,58 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="74" t="s">
+      <c r="F13" s="42"/>
+      <c r="G13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="I13" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="17" t="s">
         <v>7</v>
-      </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="17" t="s">
-        <v>8</v>
       </c>
       <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="76"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="52"/>
       <c r="K14" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="2"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -1401,134 +1432,134 @@
       <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
+      <c r="A19" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="45"/>
+      <c r="A23" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
@@ -1538,87 +1569,87 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+        <v>10</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="61"/>
-      <c r="L28" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="45"/>
+      <c r="A29" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="48"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
@@ -1628,87 +1659,87 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+        <v>10</v>
+      </c>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="61"/>
-      <c r="L34" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="A35" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="68"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="68"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="66"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="68"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="66"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="25"/>
@@ -1718,87 +1749,87 @@
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
+        <v>10</v>
+      </c>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
       <c r="J40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="70"/>
+        <v>11</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="72"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
+      <c r="A41" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="46"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="48"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="49"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="48"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="49"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
@@ -1808,15 +1839,15 @@
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
+        <v>10</v>
+      </c>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
       <c r="J46" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="59"/>
-      <c r="L46" s="60"/>
+        <v>11</v>
+      </c>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
     </row>
     <row r="47" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -1829,22 +1860,18 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G14:H14"/>
+  <mergeCells count="26">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A41:L45"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="K46:L46"/>
@@ -1854,11 +1881,13 @@
     <mergeCell ref="A35:L39"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="K40:L40"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A23:L27"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="E14:F14"/>
